--- a/nodes_source_analyses/energy/energy_steam_methane_reformer_ccs_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_steam_methane_reformer_ccs_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="0" windowWidth="19200" windowHeight="23460" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -12,11 +12,10 @@
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
     <sheet name="Notes" sheetId="20" r:id="rId5"/>
-    <sheet name="Exchange_rates" sheetId="21" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -38,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="187">
   <si>
     <t>Source</t>
   </si>
@@ -210,9 +209,6 @@
   </si>
   <si>
     <t>NL</t>
-  </si>
-  <si>
-    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
   </si>
   <si>
     <t>Exchange rate</t>
@@ -471,15 +467,6 @@
   </si>
   <si>
     <t>acres</t>
-  </si>
-  <si>
-    <t>&gt; This efficiency is higher for newer plants</t>
-  </si>
-  <si>
-    <t>(Up to 85%)</t>
-  </si>
-  <si>
-    <t>TO DO: update efficiency</t>
   </si>
   <si>
     <t>DOE: Hydrogen and Fuel Cells Program</t>
@@ -706,12 +693,19 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -929,13 +923,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -952,6 +939,29 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1028,7 +1038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1234,37 +1244,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1278,737 +1257,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="439">
+  <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="439">
+  <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2357,6 +2334,10 @@
     <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2577,8 +2558,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -2615,8 +2596,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2653,8 +2634,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3924300</xdr:colOff>
       <xdr:row>264</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -2691,8 +2672,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
       <xdr:row>296</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2729,8 +2710,8 @@
       <xdr:rowOff>25172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3784600</xdr:colOff>
       <xdr:row>209</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2767,8 +2748,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3111500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2797,6 +2778,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3429000</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="56997600"/>
+          <a:ext cx="9359900" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3632200" cy="723900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="1320801"/>
+          <a:ext cx="3632200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This central steam methane reforming plant is based on the Air Liquide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> plant in the Botlek area. It is CCS-ready, so it will also be the reference plant of this plant.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3301,7 +3376,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3336,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3369,105 +3444,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="79"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="83" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="84" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="85" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="87" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="88" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="90" t="s">
+      <c r="B22" s="86"/>
+      <c r="C22" s="89" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="91" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="90" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3490,7 +3565,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3512,36 +3587,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="184"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3585,7 +3660,7 @@
       <c r="I9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="94"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
@@ -3613,42 +3688,42 @@
     </row>
     <row r="12" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="123" t="s">
-        <v>68</v>
+      <c r="C12" s="110" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="108">
+      <c r="E12" s="107">
         <f>'Research data'!H7</f>
         <v>0.97080586002925773</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="123" t="s">
-        <v>117</v>
+      <c r="G12" s="110" t="s">
+        <v>116</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="125" t="s">
-        <v>69</v>
+      <c r="I12" s="112" t="s">
+        <v>68</v>
       </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="123" t="s">
-        <v>67</v>
+      <c r="C13" s="110" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="108">
+      <c r="E13" s="107">
         <f>'Research data'!H8</f>
         <v>2.9194139970742255E-2</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="123" t="s">
-        <v>118</v>
+      <c r="G13" s="110" t="s">
+        <v>117</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="125" t="s">
-        <v>69</v>
+      <c r="I13" s="112" t="s">
+        <v>68</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
@@ -3656,107 +3731,107 @@
     <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="123" t="s">
-        <v>66</v>
+      <c r="C14" s="110" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="107">
         <f>'Research data'!H9</f>
         <v>0.70799999999999996</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="123" t="s">
+      <c r="G14" s="110" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="125" t="s">
-        <v>69</v>
+      <c r="I14" s="112" t="s">
+        <v>68</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="123" t="s">
-        <v>78</v>
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="110" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="108">
+        <v>76</v>
+      </c>
+      <c r="E15" s="107">
         <f>'Research data'!H10</f>
         <v>363.21909722222222</v>
       </c>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="123"/>
-      <c r="I15" s="125" t="s">
+      <c r="F15" s="110"/>
+      <c r="G15" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="129"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="116"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="126"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="165" t="s">
-        <v>160</v>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="151" t="s">
+        <v>156</v>
       </c>
       <c r="D16" s="23"/>
-      <c r="E16" s="108">
+      <c r="E16" s="107">
         <f>'Research data'!H12</f>
         <v>7500</v>
       </c>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="167" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" s="129"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="116"/>
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="16" thickBot="1">
-      <c r="B17" s="127"/>
-      <c r="C17" s="123" t="s">
-        <v>82</v>
+      <c r="B17" s="114"/>
+      <c r="C17" s="110" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="107">
         <f>'Research data'!H11</f>
         <v>0.9</v>
       </c>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="129"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="1:10" ht="16" thickBot="1">
-      <c r="B18" s="127"/>
-      <c r="C18" s="123" t="s">
-        <v>83</v>
+      <c r="B18" s="114"/>
+      <c r="C18" s="110" t="s">
+        <v>82</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="117">
         <v>0</v>
       </c>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="129"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="116"/>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="40"/>
@@ -3767,7 +3842,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="95"/>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" ht="16" thickBot="1">
       <c r="B20" s="40"/>
@@ -3780,7 +3855,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="95"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="B21" s="40"/>
@@ -3799,10 +3874,10 @@
         <v>6</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="95"/>
+      <c r="I21" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B22" s="40"/>
@@ -3817,370 +3892,371 @@
         <v>4870060.1092896173</v>
       </c>
       <c r="F22" s="39"/>
-      <c r="G22" s="169" t="s">
-        <v>173</v>
+      <c r="G22" s="155" t="s">
+        <v>169</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="J22" s="95"/>
+      <c r="I22" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="16" thickBot="1">
-      <c r="B23" s="159"/>
-      <c r="C23" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="108">
+      <c r="B23" s="145"/>
+      <c r="C23" s="154" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="107">
         <f>'Research data'!H23</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="160" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="164"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="146" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="148"/>
+      <c r="I23" s="149" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="150"/>
     </row>
     <row r="24" spans="1:10" ht="16" thickBot="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="108">
+      <c r="B24" s="145"/>
+      <c r="C24" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="147"/>
+      <c r="E24" s="107">
         <f>'Research data'!H24</f>
         <v>106508725.86520946</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="168" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="162"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="154" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="148"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" ht="16" thickBot="1">
-      <c r="B25" s="159"/>
-      <c r="C25" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="108">
+      <c r="B25" s="145"/>
+      <c r="C25" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="147"/>
+      <c r="E25" s="107">
         <f>'Research data'!H25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="162"/>
-      <c r="G25" s="168" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="162"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="154" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="148"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1">
-      <c r="B26" s="159"/>
-      <c r="C26" s="175" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="108">
+      <c r="B26" s="145"/>
+      <c r="C26" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="147"/>
+      <c r="E26" s="107">
         <f>'Research data'!H26</f>
         <v>24299833.879781421</v>
       </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="168" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="162"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="154" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1">
-      <c r="B27" s="159"/>
-      <c r="C27" s="168" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="108">
+      <c r="B27" s="145"/>
+      <c r="C27" s="154" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="147"/>
+      <c r="E27" s="107">
         <f>'Research data'!H27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="162"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" ht="16" thickBot="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="123" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="130">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123" t="s">
+      <c r="H28" s="110"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="116"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" thickBot="1">
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="129"/>
-    </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="123" t="s">
+      <c r="D29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="130">
+      <c r="E29" s="117">
         <v>1</v>
       </c>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="129"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="123"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="129"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="1:10" ht="16" thickBot="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="129"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="116"/>
     </row>
     <row r="32" spans="1:10" ht="16" thickBot="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="123" t="s">
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="110" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="130">
+      <c r="E32" s="117">
         <f>'Research data'!H32</f>
         <v>40</v>
       </c>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="129"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="110"/>
+      <c r="I32" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" ht="16" thickBot="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="123" t="s">
-        <v>94</v>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="110" t="s">
+        <v>93</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="130">
+      <c r="E33" s="117">
         <f>'Research data'!H33</f>
         <v>3</v>
       </c>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="129"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="110"/>
+      <c r="I33" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="116"/>
     </row>
     <row r="34" spans="1:10" ht="16" thickBot="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="123" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="151">
+      <c r="E34" s="137">
         <f>'Research data'!H34</f>
         <v>3.235581614498978E-2</v>
       </c>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="123"/>
-      <c r="I34" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="129"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="110"/>
+      <c r="I34" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="116"/>
     </row>
     <row r="35" spans="1:10" ht="16" thickBot="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="123" t="s">
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="130">
-        <v>0</v>
-      </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="129"/>
+      <c r="E35" s="115">
+        <f>'Research data'!H35</f>
+        <v>0.9</v>
+      </c>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="116"/>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="136"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="123"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="126"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="126"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="126"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="126"/>
-      <c r="B40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="126"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="126"/>
+      <c r="A45" s="113"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="126"/>
+      <c r="A46" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4235,8 +4311,8 @@
   </sheetPr>
   <dimension ref="A2:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4286,32 +4362,32 @@
     </row>
     <row r="4" spans="1:19" s="26" customFormat="1">
       <c r="B4" s="25"/>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92" t="s">
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4327,7 +4403,7 @@
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="49"/>
-      <c r="P5" s="55"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="45"/>
@@ -4346,222 +4422,222 @@
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
-      <c r="P6" s="53"/>
+      <c r="P6" s="52"/>
     </row>
     <row r="7" spans="1:19" ht="16" thickBot="1">
       <c r="B7" s="45"/>
-      <c r="C7" s="124" t="s">
-        <v>68</v>
+      <c r="C7" s="111" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="107">
+      <c r="F7" s="105"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="106">
         <f>L7</f>
         <v>0.97080586002925773</v>
       </c>
       <c r="I7" s="48"/>
-      <c r="J7" s="54"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="48"/>
-      <c r="L7" s="107">
+      <c r="L7" s="106">
         <f>Notes!E33</f>
         <v>0.97080586002925773</v>
       </c>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
-      <c r="P7" s="122"/>
+      <c r="P7" s="109"/>
     </row>
     <row r="8" spans="1:19" ht="16" thickBot="1">
       <c r="B8" s="45"/>
-      <c r="C8" s="124" t="s">
-        <v>67</v>
+      <c r="C8" s="111" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="107">
+      <c r="F8" s="105"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="106">
         <f>L8</f>
         <v>2.9194139970742255E-2</v>
       </c>
       <c r="I8" s="48"/>
-      <c r="J8" s="54"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="107">
+      <c r="L8" s="106">
         <f>Notes!E34</f>
         <v>2.9194139970742255E-2</v>
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
-      <c r="P8" s="122"/>
+      <c r="P8" s="109"/>
     </row>
     <row r="9" spans="1:19" ht="16" thickBot="1">
       <c r="B9" s="45"/>
-      <c r="C9" s="124" t="s">
-        <v>66</v>
+      <c r="C9" s="111" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="107">
+      <c r="G9" s="92"/>
+      <c r="H9" s="106">
         <f>L9</f>
         <v>0.70799999999999996</v>
       </c>
       <c r="I9" s="48"/>
-      <c r="J9" s="54"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="48"/>
-      <c r="L9" s="107">
+      <c r="L9" s="106">
         <f>Notes!E36</f>
         <v>0.70799999999999996</v>
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
-      <c r="P9" s="53"/>
+      <c r="P9" s="52"/>
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="124" t="s">
-        <v>78</v>
+      <c r="C10" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="F10" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="107">
+      <c r="F10" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="92"/>
+      <c r="H10" s="106">
         <f>J10</f>
         <v>363.21909722222222</v>
       </c>
       <c r="I10" s="48"/>
-      <c r="J10" s="107">
+      <c r="J10" s="106">
         <f>Notes!E66</f>
         <v>363.21909722222222</v>
       </c>
       <c r="K10" s="48"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="46"/>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
-      <c r="P10" s="122"/>
+      <c r="P10" s="109"/>
     </row>
     <row r="11" spans="1:19" ht="16" thickBot="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="123" t="s">
-        <v>82</v>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="110" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
       <c r="F11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="128">
+      <c r="G11" s="92"/>
+      <c r="H11" s="115">
         <f>L11</f>
         <v>0.9</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="144">
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="131">
         <f>Notes!E127</f>
         <v>0.9</v>
       </c>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="126"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="113"/>
     </row>
     <row r="12" spans="1:19" ht="16" thickBot="1">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="165" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="151" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="128">
+        <v>158</v>
+      </c>
+      <c r="H12" s="115">
         <f>N12</f>
         <v>7500</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="144">
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="131">
         <f>Notes!E128</f>
         <v>7500</v>
       </c>
-      <c r="O12" s="126"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="126"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="113"/>
     </row>
     <row r="13" spans="1:19" ht="16" thickBot="1">
-      <c r="A13" s="126"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="154" t="s">
-        <v>84</v>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="140" t="s">
+        <v>83</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="112">
         <v>0.1</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="126"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="113"/>
     </row>
     <row r="14" spans="1:19" ht="16" thickBot="1">
-      <c r="A14" s="126"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="154" t="s">
-        <v>85</v>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="140" t="s">
+        <v>84</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H14" s="112">
         <v>0.7</v>
       </c>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="126"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="113"/>
     </row>
     <row r="15" spans="1:19" ht="16" thickBot="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="123" t="s">
-        <v>83</v>
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="110" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4569,39 +4645,39 @@
         <v>2</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="130">
+      <c r="H15" s="117">
         <v>0</v>
       </c>
-      <c r="O15" s="126"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="126"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="113"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="45"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="54"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="48"/>
-      <c r="L16" s="54"/>
+      <c r="L16" s="53"/>
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
-      <c r="P16" s="166"/>
+      <c r="P16" s="152"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="126"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="34"/>
       <c r="F17" s="34"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="140"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="127"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="55"/>
+      <c r="P17" s="54"/>
     </row>
     <row r="18" spans="1:16" ht="16" thickBot="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
@@ -4609,302 +4685,302 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="140"/>
+      <c r="K18" s="127"/>
       <c r="O18" s="48"/>
-      <c r="P18" s="122"/>
+      <c r="P18" s="109"/>
     </row>
     <row r="19" spans="1:16" ht="16" thickBot="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="143" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="139">
+      <c r="H19" s="126">
         <f>L19</f>
         <v>160000000</v>
       </c>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="144">
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="131">
         <f>Notes!E69</f>
         <v>160000000</v>
       </c>
       <c r="O19" s="48"/>
-      <c r="P19" s="122"/>
+      <c r="P19" s="109"/>
     </row>
     <row r="20" spans="1:16" ht="16" thickBot="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="143" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="145" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="139">
+      <c r="H20" s="126">
         <f>L20</f>
         <v>2648341.5300546447</v>
       </c>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="144">
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="131">
         <f>Notes!E205</f>
         <v>2648341.5300546447</v>
       </c>
-      <c r="P20" s="148" t="s">
-        <v>123</v>
+      <c r="P20" s="135" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16" thickBot="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="145" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="155">
+      <c r="H21" s="141">
         <f>L21</f>
         <v>2079770.4918032784</v>
       </c>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="144">
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="131">
         <f>Notes!E235</f>
         <v>2079770.4918032784</v>
       </c>
-      <c r="P21" s="148" t="s">
-        <v>123</v>
+      <c r="P21" s="135" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" thickBot="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="156">
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="142">
         <f>L22</f>
         <v>2.120718247541034E-4</v>
       </c>
-      <c r="J22" s="140"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="155">
+      <c r="J22" s="127"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="141">
         <f>Notes!E240</f>
         <v>2.120718247541034E-4</v>
       </c>
-      <c r="P22" s="148" t="s">
-        <v>123</v>
+      <c r="P22" s="135" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" thickBot="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="155">
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="141">
         <f>Notes!E241</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="J23" s="141"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="155">
+      <c r="J23" s="128"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="141">
         <f>Notes!E241</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="P23" s="148" t="s">
-        <v>123</v>
+      <c r="P23" s="135" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" thickBot="1">
-      <c r="A24" s="170"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="169" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="169" t="s">
+      <c r="A24" s="156"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="172">
+      <c r="G24" s="156"/>
+      <c r="H24" s="158">
         <f t="shared" ref="H24:H28" si="0">L24</f>
         <v>106508725.86520946</v>
       </c>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="172">
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="158">
         <f>Notes!E281</f>
         <v>106508725.86520946</v>
       </c>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="56"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="16" thickBot="1">
-      <c r="A25" s="170"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="169" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="169" t="s">
+      <c r="A25" s="156"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="155" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="170"/>
-      <c r="H25" s="172">
+      <c r="G25" s="156"/>
+      <c r="H25" s="158">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="172">
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="158">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="P25" s="174" t="s">
-        <v>178</v>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="P25" s="160" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16" thickBot="1">
-      <c r="A26" s="170"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="169" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="169" t="s">
+      <c r="A26" s="156"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="170"/>
-      <c r="H26" s="172">
+      <c r="G26" s="156"/>
+      <c r="H26" s="158">
         <f t="shared" si="0"/>
         <v>24299833.879781421</v>
       </c>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="172">
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="158">
         <f>Notes!E171</f>
         <v>24299833.879781421</v>
       </c>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="56"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="16" thickBot="1">
-      <c r="A27" s="170"/>
-      <c r="B27" s="171"/>
-      <c r="C27" s="168" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="169" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="170"/>
-      <c r="H27" s="172">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="154" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="155" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="156"/>
+      <c r="H27" s="158">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="172">
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="158">
         <f>Notes!E284</f>
         <v>0</v>
       </c>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="P27" s="174" t="s">
-        <v>180</v>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="P27" s="160" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" thickBot="1">
-      <c r="A28" s="170"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="169" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="169" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="170"/>
-      <c r="H28" s="172">
+      <c r="G28" s="156"/>
+      <c r="H28" s="158">
         <f t="shared" si="0"/>
         <v>2221718.5792349726</v>
       </c>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="172">
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="158">
         <f>Notes!E294</f>
         <v>2221718.5792349726</v>
       </c>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="148"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="135"/>
     </row>
     <row r="29" spans="1:16" ht="16" thickBot="1">
-      <c r="A29" s="170"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="169" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="169" t="s">
+      <c r="A29" s="156"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="170"/>
-      <c r="H29" s="172">
+      <c r="G29" s="156"/>
+      <c r="H29" s="158">
         <f>H28+H20</f>
         <v>4870060.1092896173</v>
       </c>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="P29" s="148" t="s">
-        <v>123</v>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="P29" s="135" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="B30" s="45"/>
-      <c r="P30" s="122"/>
+      <c r="P30" s="109"/>
     </row>
     <row r="31" spans="1:16" ht="16" thickBot="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="34" t="s">
         <v>5</v>
       </c>
@@ -4917,158 +4993,163 @@
       <c r="M31" s="46"/>
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
-      <c r="P31" s="166"/>
+      <c r="P31" s="152"/>
     </row>
     <row r="32" spans="1:16" ht="16" thickBot="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="142" t="s">
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="139">
+      <c r="H32" s="126">
         <f>L32</f>
         <v>40</v>
       </c>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="144">
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="131">
         <f>Notes!E134</f>
         <v>40</v>
       </c>
       <c r="M32" s="46"/>
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
-      <c r="P32" s="166"/>
+      <c r="P32" s="152"/>
     </row>
     <row r="33" spans="1:16" ht="16" thickBot="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="138" t="s">
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="139">
+      <c r="H33" s="126">
         <f t="shared" ref="H33" si="1">L33</f>
         <v>3</v>
       </c>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="144">
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="131">
         <f>Notes!E135</f>
         <v>3</v>
       </c>
       <c r="M33" s="46"/>
       <c r="N33" s="46"/>
       <c r="O33" s="46"/>
-      <c r="P33" s="166"/>
+      <c r="P33" s="152"/>
     </row>
     <row r="34" spans="1:16" ht="16" thickBot="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="150">
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="136">
         <f>L34</f>
         <v>3.235581614498978E-2</v>
       </c>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="144">
+      <c r="L34" s="131">
         <f>Notes!E178</f>
         <v>3.235581614498978E-2</v>
       </c>
       <c r="M34" s="46"/>
       <c r="N34" s="46"/>
       <c r="O34" s="46"/>
-      <c r="P34" s="166"/>
+      <c r="P34" s="152"/>
     </row>
     <row r="35" spans="1:16" ht="16" thickBot="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="105" t="s">
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="104" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="H35" s="52">
+      <c r="H35" s="126">
+        <f>L35</f>
+        <v>0.9</v>
+      </c>
+      <c r="L35" s="131">
+        <f>Notes!E302</f>
+        <v>0.9</v>
+      </c>
+      <c r="P35" s="152"/>
+    </row>
+    <row r="36" spans="1:16" ht="16" thickBot="1">
+      <c r="A36" s="113"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="117">
+        <v>442800</v>
+      </c>
+      <c r="P36" s="52"/>
+    </row>
+    <row r="37" spans="1:16" ht="16" thickBot="1">
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="117">
         <v>0</v>
       </c>
-      <c r="P35" s="166"/>
-    </row>
-    <row r="36" spans="1:16" ht="16" thickBot="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="154" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="130">
-        <v>442800</v>
-      </c>
-      <c r="P36" s="53"/>
-    </row>
-    <row r="37" spans="1:16" ht="16" thickBot="1">
-      <c r="A37" s="126"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="154" t="s">
+      <c r="P37" s="109"/>
+    </row>
+    <row r="38" spans="1:16" ht="16" thickBot="1">
+      <c r="A38" s="113"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="130">
-        <v>0</v>
-      </c>
-      <c r="P37" s="122"/>
-    </row>
-    <row r="38" spans="1:16" ht="16" thickBot="1">
-      <c r="A38" s="126"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="154" t="s">
+      <c r="H38" s="117">
+        <v>2835000</v>
+      </c>
+      <c r="P38" s="152"/>
+    </row>
+    <row r="39" spans="1:16" ht="16" thickBot="1">
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="130">
-        <v>2835000</v>
-      </c>
-      <c r="P38" s="166"/>
-    </row>
-    <row r="39" spans="1:16" ht="16" thickBot="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="154" t="s">
+      <c r="H39" s="117">
+        <v>534600</v>
+      </c>
+      <c r="P39" s="152"/>
+    </row>
+    <row r="40" spans="1:16" ht="16" thickBot="1">
+      <c r="A40" s="113"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="130">
-        <v>534600</v>
-      </c>
-      <c r="P39" s="166"/>
-    </row>
-    <row r="40" spans="1:16" ht="16" thickBot="1">
-      <c r="A40" s="126"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="154" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="130">
+      <c r="H40" s="117">
         <v>354600</v>
       </c>
-      <c r="P40" s="166"/>
+      <c r="P40" s="152"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="P41" s="166"/>
+      <c r="P41" s="152"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="P42" s="166"/>
+      <c r="P42" s="152"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="P43" s="166"/>
+      <c r="P43" s="152"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5088,38 +5169,38 @@
   </sheetPr>
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="58" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="58" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="63" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="63" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="58"/>
+    <col min="1" max="1" width="3.5" style="57" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="57" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="61"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
@@ -5129,21 +5210,21 @@
       <c r="G3" s="13"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="57"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="61"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="66"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -5170,7 +5251,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="61"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -5181,236 +5262,239 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="61"/>
-      <c r="C7" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="131" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="56">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="56">
+        <v>2015</v>
+      </c>
+      <c r="H7" s="103">
+        <v>42328</v>
+      </c>
+      <c r="I7" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="60"/>
+      <c r="C8" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="60"/>
+      <c r="C9" s="133" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="60"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="60"/>
+      <c r="C11" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="57">
+      <c r="E11" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="56">
+        <v>2014</v>
+      </c>
+      <c r="G11" s="56">
+        <v>2014</v>
+      </c>
+      <c r="H11" s="103">
+        <v>42328</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="60"/>
+      <c r="C12" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="60"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="60"/>
+      <c r="C14" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="108"/>
+      <c r="F14" s="56">
         <v>2015</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G14" s="56">
         <v>2015</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H14" s="103">
         <v>42328</v>
       </c>
-      <c r="I7" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="47" t="s">
+      <c r="I14" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="60"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="98"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="60"/>
+      <c r="C16" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="113" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="61"/>
-      <c r="C8" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="61"/>
-      <c r="C9" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="61"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="100"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="61"/>
-      <c r="C11" s="146" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="57">
-        <v>2014</v>
-      </c>
-      <c r="G11" s="57">
-        <v>2014</v>
-      </c>
-      <c r="H11" s="104">
+      <c r="E16" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="56">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="56">
+        <v>2010</v>
+      </c>
+      <c r="H16" s="103">
         <v>42328</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="61"/>
-      <c r="C12" s="147" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="61"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="61"/>
-      <c r="C14" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="57">
-        <v>2015</v>
-      </c>
-      <c r="G14" s="57">
-        <v>2015</v>
-      </c>
-      <c r="H14" s="104">
-        <v>42328</v>
-      </c>
-      <c r="I14" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="61"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="61"/>
-      <c r="C16" s="146" t="s">
+      <c r="I16" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="60"/>
+      <c r="C17" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="126" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="57">
-        <v>2015</v>
-      </c>
-      <c r="G16" s="57">
-        <v>2010</v>
-      </c>
-      <c r="H16" s="104">
-        <v>42328</v>
-      </c>
-      <c r="I16" s="131" t="s">
-        <v>164</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="61"/>
-      <c r="C17" s="126" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="61"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="113" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="61"/>
-      <c r="C19" s="146" t="s">
-        <v>110</v>
+      <c r="B19" s="60"/>
+      <c r="C19" s="133" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="61"/>
-      <c r="C20" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="134" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="61"/>
-      <c r="C21" s="146" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="57"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="133" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="61"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5426,1772 +5510,1828 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O294"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="68" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="68" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="68" customWidth="1"/>
-    <col min="4" max="4" width="4" style="68" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="68" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="68"/>
-    <col min="14" max="14" width="7.125" style="68" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="68"/>
+    <col min="1" max="1" width="3.625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="4" style="67" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="67" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="67"/>
+    <col min="13" max="13" width="10.625" style="67" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="67" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="67" customWidth="1"/>
+    <col min="16" max="16" width="54.75" style="67" customWidth="1"/>
+    <col min="17" max="16384" width="10.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1"/>
     <row r="2" spans="1:15">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="76" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="76" t="s">
+      <c r="D3" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="98"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="B5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="s">
+      <c r="B6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="73"/>
+      <c r="C17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="73"/>
+      <c r="C19" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75" t="s">
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74">
+        <v>45.79</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75">
-        <v>45.79</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75">
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74">
         <f>0.569+0.808</f>
         <v>1.377</v>
       </c>
-      <c r="F29" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
+      <c r="F29" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="E33" s="75">
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="E33" s="74">
         <f>E28/($E$28+$E$29)</f>
         <v>0.97080586002925773</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="74"/>
-      <c r="E34" s="75">
+      <c r="B34" s="73"/>
+      <c r="E34" s="74">
         <f>E29/($E$28+$E$29)</f>
         <v>2.9194139970742255E-2</v>
       </c>
-      <c r="G34" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
+      <c r="G34" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75">
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="G38" s="149" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="149" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="74"/>
-      <c r="C44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="74"/>
-      <c r="C46" s="75"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="74"/>
-      <c r="C47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="74"/>
-      <c r="C48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="74"/>
-      <c r="C49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
     </row>
     <row r="50" spans="2:15" ht="16">
-      <c r="B50" s="74"/>
-      <c r="C50" s="75"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
       <c r="J50"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="74"/>
-      <c r="C51" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="74"/>
-      <c r="C53" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="74"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="74"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="74"/>
-      <c r="C56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="74"/>
-      <c r="C57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="74"/>
-      <c r="C59" s="75"/>
-      <c r="E59" s="68">
+      <c r="B59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="E59" s="67">
         <v>130000</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="73"/>
+      <c r="C60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="E61" s="67">
+        <v>8.3750000000000005E-2</v>
+      </c>
+      <c r="F61" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="74"/>
-      <c r="C60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="74"/>
-      <c r="C61" s="75"/>
-      <c r="E61" s="68">
-        <v>8.3750000000000005E-2</v>
-      </c>
-      <c r="F61" s="68" t="s">
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="E62" s="67">
+        <v>120.1</v>
+      </c>
+      <c r="F62" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-    </row>
-    <row r="62" spans="2:15">
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
-      <c r="E62" s="68">
-        <v>120.1</v>
-      </c>
-      <c r="F62" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="74"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="74"/>
-      <c r="C63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="E64" s="68">
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="E64" s="67">
         <f>E59*E61*E62</f>
         <v>1307588.75</v>
       </c>
-      <c r="F64" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
+      <c r="F64" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="74"/>
     </row>
     <row r="65" spans="2:15">
-      <c r="B65" s="74"/>
-      <c r="C65" s="75"/>
-      <c r="E65" s="68">
+      <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="E65" s="67">
         <f>E64/E62*24</f>
         <v>261300</v>
       </c>
-      <c r="F65" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75"/>
+      <c r="F65" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="K65" s="74"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="74"/>
+      <c r="O65" s="74"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="74"/>
-      <c r="C66" s="75"/>
-      <c r="E66" s="68">
+      <c r="B66" s="73"/>
+      <c r="C66" s="74"/>
+      <c r="E66" s="67">
         <f>E64/60/60</f>
         <v>363.21909722222222</v>
       </c>
-      <c r="F66" s="68" t="s">
+      <c r="F66" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="75"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="74"/>
-      <c r="C67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="74"/>
-      <c r="C69" s="75"/>
-      <c r="E69" s="68">
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="E69" s="67">
         <v>160000000</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
+      <c r="G69" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" s="74"/>
-      <c r="C71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="74"/>
-      <c r="C72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="75"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="74"/>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="74"/>
-      <c r="C73" s="75"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="74"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
+      <c r="B74" s="73"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="74"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
+      <c r="B75" s="73"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="74"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
+      <c r="B76" s="73"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
     </row>
     <row r="77" spans="2:15" ht="16">
-      <c r="B77" s="74"/>
-      <c r="C77" s="157" t="s">
-        <v>152</v>
-      </c>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="143" t="s">
+        <v>148</v>
+      </c>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
     </row>
     <row r="78" spans="2:15">
-      <c r="B78" s="74"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
+      <c r="B78" s="73"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" s="74"/>
-      <c r="C79" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="74"/>
-      <c r="E80" s="68">
+      <c r="B80" s="73"/>
+      <c r="E80" s="67">
         <v>7500</v>
       </c>
-      <c r="F80" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="N80" s="75"/>
-      <c r="O80" s="75"/>
+      <c r="F80" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="N80" s="74"/>
+      <c r="O80" s="74"/>
     </row>
     <row r="81" spans="2:15">
-      <c r="B81" s="74"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="75"/>
+      <c r="B81" s="73"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
     </row>
     <row r="82" spans="2:15">
-      <c r="B82" s="74"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
+      <c r="B82" s="73"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
     </row>
     <row r="83" spans="2:15">
-      <c r="B83" s="74"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
+      <c r="B83" s="73"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="74"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
+      <c r="B84" s="73"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
     </row>
     <row r="85" spans="2:15">
-      <c r="B85" s="74"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
+      <c r="B85" s="73"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
     </row>
     <row r="86" spans="2:15">
-      <c r="B86" s="74"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
+      <c r="B86" s="73"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
     </row>
     <row r="87" spans="2:15">
-      <c r="B87" s="74"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
+      <c r="B87" s="73"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="74"/>
     </row>
     <row r="88" spans="2:15">
-      <c r="B88" s="74"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
+      <c r="B88" s="73"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
     </row>
     <row r="89" spans="2:15">
-      <c r="B89" s="74"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
+      <c r="B89" s="73"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
     </row>
     <row r="90" spans="2:15">
-      <c r="B90" s="74"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
+      <c r="B90" s="73"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="74"/>
     </row>
     <row r="91" spans="2:15">
-      <c r="B91" s="74"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
+      <c r="B91" s="73"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="B92" s="74"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
+      <c r="B92" s="73"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="74"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="B93" s="74"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
+      <c r="B93" s="73"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="74"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="B94" s="74"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
+      <c r="B94" s="73"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="74"/>
     </row>
     <row r="95" spans="2:15">
-      <c r="B95" s="74"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
+      <c r="B95" s="73"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="74"/>
     </row>
     <row r="96" spans="2:15">
-      <c r="B96" s="74"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-    </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="74"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
-    </row>
-    <row r="98" spans="2:15">
-      <c r="B98" s="74"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="75"/>
-    </row>
-    <row r="99" spans="2:15">
-      <c r="B99" s="74"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
-    </row>
-    <row r="100" spans="2:15">
-      <c r="B100" s="74"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
-    </row>
-    <row r="101" spans="2:15">
-      <c r="B101" s="74"/>
-      <c r="N101" s="75"/>
-      <c r="O101" s="75"/>
-    </row>
-    <row r="102" spans="2:15">
-      <c r="B102" s="74"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="75"/>
-    </row>
-    <row r="103" spans="2:15">
-      <c r="B103" s="74"/>
-      <c r="N103" s="75"/>
-      <c r="O103" s="75"/>
-    </row>
-    <row r="104" spans="2:15">
-      <c r="B104" s="74"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
-    </row>
-    <row r="105" spans="2:15">
-      <c r="B105" s="74"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="75"/>
-    </row>
-    <row r="106" spans="2:15">
-      <c r="B106" s="74"/>
-      <c r="C106" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="N106" s="75"/>
-      <c r="O106" s="75"/>
-    </row>
-    <row r="107" spans="2:15">
-      <c r="B107" s="74"/>
-      <c r="C107" s="68" t="s">
+      <c r="B96" s="73"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="74"/>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="73"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="74"/>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="73"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="73"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="73"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
+    </row>
+    <row r="101" spans="2:17">
+      <c r="B101" s="73"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="74"/>
+    </row>
+    <row r="102" spans="2:17">
+      <c r="B102" s="73"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="74"/>
+    </row>
+    <row r="103" spans="2:17">
+      <c r="B103" s="73"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="74"/>
+    </row>
+    <row r="104" spans="2:17">
+      <c r="B104" s="73"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="74"/>
+    </row>
+    <row r="105" spans="2:17">
+      <c r="B105" s="73"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="74"/>
+    </row>
+    <row r="106" spans="2:17">
+      <c r="B106" s="73"/>
+      <c r="C106" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="N106" s="74"/>
+      <c r="O106" s="74"/>
+    </row>
+    <row r="107" spans="2:17" ht="16" thickBot="1">
+      <c r="B107" s="73"/>
+      <c r="C107" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="N107" s="74"/>
+      <c r="O107" s="74"/>
+    </row>
+    <row r="108" spans="2:17">
+      <c r="B108" s="73"/>
+      <c r="C108" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="N107" s="75"/>
-      <c r="O107" s="75"/>
-    </row>
-    <row r="108" spans="2:15">
-      <c r="B108" s="74"/>
-      <c r="C108" s="75" t="s">
+      <c r="J108" s="163"/>
+      <c r="K108" s="164"/>
+      <c r="L108" s="164"/>
+      <c r="M108" s="164"/>
+      <c r="N108" s="164"/>
+      <c r="O108" s="164"/>
+      <c r="P108" s="164"/>
+      <c r="Q108" s="165"/>
+    </row>
+    <row r="109" spans="2:17" ht="18">
+      <c r="B109" s="73"/>
+      <c r="C109" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="N108" s="75"/>
-      <c r="O108" s="75"/>
-    </row>
-    <row r="109" spans="2:15">
-      <c r="B109" s="74"/>
-      <c r="C109" s="75" t="s">
+      <c r="D109" s="74"/>
+      <c r="J109" s="166"/>
+      <c r="K109" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="L109" s="167" t="s">
+        <v>8</v>
+      </c>
+      <c r="M109" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="N109" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="O109" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="P109" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="168"/>
+    </row>
+    <row r="110" spans="2:17" ht="19" thickBot="1">
+      <c r="B110" s="73"/>
+      <c r="C110" s="74"/>
+      <c r="J110" s="169"/>
+      <c r="K110" s="170"/>
+      <c r="L110" s="170"/>
+      <c r="M110" s="170"/>
+      <c r="N110" s="170"/>
+      <c r="O110" s="170"/>
+      <c r="P110" s="170"/>
+      <c r="Q110" s="171"/>
+    </row>
+    <row r="111" spans="2:17" ht="19" thickBot="1">
+      <c r="B111" s="73"/>
+      <c r="C111" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
-    </row>
-    <row r="110" spans="2:15">
-      <c r="B110" s="74"/>
-      <c r="C110" s="75"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="75"/>
-    </row>
-    <row r="111" spans="2:15">
-      <c r="B111" s="74"/>
-      <c r="C111" s="68" t="s">
+      <c r="E111" s="178">
+        <f>M111</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F111" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="G111" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="J111" s="169"/>
+      <c r="K111" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="L111" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="M111" s="172">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="N111" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="O111" s="173">
+        <v>42221</v>
+      </c>
+      <c r="P111" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q111" s="171"/>
+    </row>
+    <row r="112" spans="2:17" ht="16" thickBot="1">
+      <c r="B112" s="73"/>
+      <c r="C112" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="N111" s="75"/>
-      <c r="O111" s="75"/>
-    </row>
-    <row r="112" spans="2:15">
-      <c r="B112" s="74"/>
-      <c r="C112" s="68" t="s">
+      <c r="J112" s="175"/>
+      <c r="K112" s="176"/>
+      <c r="L112" s="176"/>
+      <c r="M112" s="176"/>
+      <c r="N112" s="176"/>
+      <c r="O112" s="176"/>
+      <c r="P112" s="176"/>
+      <c r="Q112" s="177"/>
+    </row>
+    <row r="113" spans="2:15">
+      <c r="B113" s="73"/>
+      <c r="C113" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="N112" s="75"/>
-      <c r="O112" s="75"/>
-    </row>
-    <row r="113" spans="2:15">
-      <c r="B113" s="74"/>
-      <c r="C113" s="68" t="s">
+      <c r="N113" s="74"/>
+      <c r="O113" s="74"/>
+    </row>
+    <row r="114" spans="2:15">
+      <c r="B114" s="73"/>
+      <c r="C114" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="N113" s="75"/>
-      <c r="O113" s="75"/>
-    </row>
-    <row r="114" spans="2:15">
-      <c r="B114" s="74"/>
-      <c r="C114" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F114" s="152"/>
-      <c r="N114" s="75"/>
-      <c r="O114" s="75"/>
+      <c r="F114" s="138"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
     </row>
     <row r="115" spans="2:15">
-      <c r="B115" s="74"/>
-      <c r="C115" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="N115" s="75"/>
-      <c r="O115" s="75"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
     </row>
     <row r="116" spans="2:15">
-      <c r="B116" s="74"/>
-      <c r="E116" s="68">
-        <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F116" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G116" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
+      <c r="B116" s="73"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
     </row>
     <row r="117" spans="2:15">
-      <c r="B117" s="74"/>
-      <c r="N117" s="75"/>
-      <c r="O117" s="75"/>
+      <c r="B117" s="73"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
     </row>
     <row r="118" spans="2:15">
-      <c r="B118" s="74"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="75"/>
+      <c r="B118" s="73"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
     </row>
     <row r="119" spans="2:15">
-      <c r="B119" s="74"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
+      <c r="B119" s="73"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
     </row>
     <row r="120" spans="2:15">
-      <c r="B120" s="74"/>
-      <c r="N120" s="75"/>
-      <c r="O120" s="75"/>
+      <c r="B120" s="73"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="74"/>
     </row>
     <row r="121" spans="2:15">
-      <c r="B121" s="74"/>
-      <c r="C121" s="75"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="75"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="74"/>
+      <c r="N121" s="74"/>
+      <c r="O121" s="74"/>
     </row>
     <row r="122" spans="2:15">
-      <c r="B122" s="74"/>
-      <c r="C122" s="75"/>
-      <c r="N122" s="75"/>
-      <c r="O122" s="75"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="74"/>
+      <c r="N122" s="74"/>
+      <c r="O122" s="74"/>
     </row>
     <row r="123" spans="2:15">
-      <c r="B123" s="74"/>
-      <c r="C123" s="75"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="74"/>
     </row>
     <row r="124" spans="2:15">
-      <c r="B124" s="74"/>
-      <c r="C124" s="75"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="74"/>
     </row>
     <row r="125" spans="2:15">
-      <c r="B125" s="74"/>
-      <c r="C125" s="75"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="74"/>
     </row>
     <row r="126" spans="2:15">
-      <c r="B126" s="74"/>
-      <c r="C126" s="75"/>
-      <c r="E126" s="153">
+      <c r="B126" s="73"/>
+      <c r="C126" s="74"/>
+      <c r="E126" s="139">
         <v>90</v>
       </c>
-      <c r="F126" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G126" s="68" t="s">
-        <v>141</v>
+      <c r="F126" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G126" s="67" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="2:15">
-      <c r="B127" s="74"/>
-      <c r="E127" s="68">
+      <c r="B127" s="73"/>
+      <c r="E127" s="67">
         <f>E126/100</f>
         <v>0.9</v>
       </c>
-      <c r="G127" s="68" t="s">
-        <v>147</v>
+      <c r="G127" s="67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="2:15">
-      <c r="B128" s="74"/>
-      <c r="E128" s="68">
+      <c r="B128" s="73"/>
+      <c r="E128" s="67">
         <f>E80</f>
         <v>7500</v>
       </c>
-      <c r="F128" s="68" t="s">
-        <v>154</v>
+      <c r="F128" s="67" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="74"/>
+      <c r="B129" s="73"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="74"/>
+      <c r="B130" s="73"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="74"/>
+      <c r="B131" s="73"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="74"/>
+      <c r="B132" s="73"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="74"/>
+      <c r="B133" s="73"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="74"/>
-      <c r="E134" s="68">
+      <c r="B134" s="73"/>
+      <c r="E134" s="67">
         <v>40</v>
       </c>
-      <c r="F134" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G134" s="68" t="s">
-        <v>131</v>
+      <c r="F134" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G134" s="67" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="74"/>
-      <c r="E135" s="68">
+      <c r="B135" s="73"/>
+      <c r="E135" s="67">
         <v>3</v>
       </c>
-      <c r="F135" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G135" s="68" t="s">
-        <v>113</v>
+      <c r="F135" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G135" s="67" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="74"/>
+      <c r="B136" s="73"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="74"/>
+      <c r="B137" s="73"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="74"/>
+      <c r="B138" s="73"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="74"/>
+      <c r="B139" s="73"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="74"/>
+      <c r="B140" s="73"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="74"/>
+      <c r="B141" s="73"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="74"/>
+      <c r="B142" s="73"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="74"/>
+      <c r="B143" s="73"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="74"/>
+      <c r="B144" s="73"/>
     </row>
     <row r="145" spans="2:9">
-      <c r="B145" s="74"/>
-      <c r="E145" s="68">
+      <c r="B145" s="73"/>
+      <c r="E145" s="67">
         <v>10</v>
       </c>
-      <c r="F145" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G145" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="I145" s="68" t="s">
-        <v>184</v>
+      <c r="F145" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G145" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="I145" s="67" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="2:9">
-      <c r="B146" s="74"/>
-      <c r="E146" s="68">
+      <c r="B146" s="73"/>
+      <c r="E146" s="67">
         <f>E145/100</f>
         <v>0.1</v>
       </c>
-      <c r="G146" s="68" t="s">
-        <v>187</v>
+      <c r="G146" s="67" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="2:9">
-      <c r="B147" s="74"/>
+      <c r="B147" s="73"/>
     </row>
     <row r="148" spans="2:9">
-      <c r="B148" s="74"/>
+      <c r="B148" s="73"/>
     </row>
     <row r="149" spans="2:9">
-      <c r="B149" s="74"/>
+      <c r="B149" s="73"/>
     </row>
     <row r="150" spans="2:9">
-      <c r="B150" s="74"/>
+      <c r="B150" s="73"/>
     </row>
     <row r="151" spans="2:9">
-      <c r="B151" s="74"/>
+      <c r="B151" s="73"/>
     </row>
     <row r="152" spans="2:9">
-      <c r="B152" s="74"/>
+      <c r="B152" s="73"/>
     </row>
     <row r="153" spans="2:9">
-      <c r="B153" s="74"/>
+      <c r="B153" s="73"/>
     </row>
     <row r="169" spans="5:7">
-      <c r="E169" s="68">
+      <c r="E169" s="67">
         <v>266812176</v>
       </c>
-      <c r="F169" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G169" s="68" t="s">
-        <v>185</v>
+      <c r="F169" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G169" s="67" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="5:7">
-      <c r="E170" s="68">
-        <f>E169/E116</f>
+      <c r="E170" s="67">
+        <f>E169/E111</f>
         <v>242998338.79781419</v>
       </c>
-      <c r="F170" s="68" t="s">
+      <c r="F170" s="67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="171" spans="5:7">
-      <c r="E171" s="68">
+      <c r="E171" s="67">
         <f>E170*E146</f>
         <v>24299833.879781421</v>
       </c>
-      <c r="F171" s="68" t="s">
+      <c r="F171" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G171" s="68" t="s">
-        <v>186</v>
+      <c r="G171" s="67" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="5:7">
-      <c r="E177" s="68">
+      <c r="E177" s="67">
         <v>7.9952892230000003</v>
       </c>
-      <c r="F177" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G177" s="68" t="s">
-        <v>112</v>
+      <c r="F177" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G177" s="67" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="5:7">
-      <c r="E178" s="68">
+      <c r="E178" s="67">
         <f>E177*0.00404686</f>
         <v>3.235581614498978E-2</v>
       </c>
-      <c r="F178" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G178" s="68" t="s">
-        <v>112</v>
+      <c r="F178" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" s="67" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="5:7">
-      <c r="E183" s="68">
+      <c r="E183" s="67">
         <v>150280948</v>
       </c>
-      <c r="F183" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G183" s="68" t="s">
-        <v>110</v>
+      <c r="F183" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G183" s="67" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="5:7">
-      <c r="E184" s="68">
-        <f>E183/E116</f>
+      <c r="E184" s="67">
+        <f>E183/E111</f>
         <v>136867894.35336974</v>
       </c>
-      <c r="F184" s="68" t="s">
+      <c r="F184" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G184" s="68" t="s">
-        <v>110</v>
+      <c r="G184" s="67" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="204" spans="5:7">
-      <c r="E204" s="68">
+      <c r="E204" s="67">
         <v>2907879</v>
       </c>
-      <c r="F204" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G204" s="68" t="s">
-        <v>149</v>
+      <c r="F204" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G204" s="67" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="5:7">
-      <c r="E205" s="68">
-        <f>E204/E116</f>
+      <c r="E205" s="67">
+        <f>E204/E111</f>
         <v>2648341.5300546447</v>
       </c>
-      <c r="F205" s="68" t="s">
+      <c r="F205" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G205" s="68" t="s">
-        <v>149</v>
+      <c r="G205" s="67" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="234" spans="5:7">
-      <c r="E234" s="68">
+      <c r="E234" s="67">
         <f>2267513+16075</f>
         <v>2283588</v>
       </c>
-      <c r="F234" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G234" s="68" t="s">
-        <v>148</v>
+      <c r="F234" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G234" s="67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="5:7">
-      <c r="E235" s="68">
-        <f>E234/E116</f>
+      <c r="E235" s="67">
+        <f>E234/E111</f>
         <v>2079770.4918032784</v>
       </c>
-      <c r="F235" s="68" t="s">
+      <c r="F235" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G235" s="68" t="s">
-        <v>148</v>
+      <c r="G235" s="67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="236" spans="5:7">
-      <c r="G236" s="68" t="s">
-        <v>133</v>
+      <c r="G236" s="67" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="239" spans="5:7">
-      <c r="E239" s="68">
+      <c r="E239" s="67">
         <f>E66*60*60*E128</f>
         <v>9806915625</v>
       </c>
-      <c r="F239" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G239" s="68" t="s">
-        <v>142</v>
+      <c r="F239" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G239" s="67" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="240" spans="5:7">
-      <c r="E240" s="68">
+      <c r="E240" s="67">
         <f>E235/E239</f>
         <v>2.120718247541034E-4</v>
       </c>
-      <c r="F240" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="G240" s="68" t="s">
-        <v>150</v>
+      <c r="F240" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G240" s="67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="241" spans="5:7">
-      <c r="E241" s="68">
+      <c r="E241" s="67">
         <f>E235/E128</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="F241" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G241" s="68" t="s">
-        <v>151</v>
+      <c r="F241" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G241" s="67" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="276" spans="5:7">
-      <c r="E276" s="68">
+      <c r="E276" s="67">
         <v>82356747</v>
       </c>
-      <c r="F276" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G276" s="68" t="s">
-        <v>165</v>
+      <c r="F276" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G276" s="67" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="277" spans="5:7">
-      <c r="E277" s="68">
-        <f>E276/E116</f>
+      <c r="E277" s="67">
+        <f>E276/E111</f>
         <v>75006144.808743164</v>
       </c>
-      <c r="F277" s="68" t="s">
+      <c r="F277" s="67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="279" spans="5:7">
-      <c r="E279" s="68">
+      <c r="E279" s="67">
         <v>34589834</v>
       </c>
-      <c r="F279" s="68" t="s">
-        <v>134</v>
+      <c r="F279" s="67" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="280" spans="5:7">
-      <c r="E280" s="68">
-        <f>E279/E116</f>
+      <c r="E280" s="67">
+        <f>E279/E111</f>
         <v>31502581.0564663</v>
       </c>
-      <c r="F280" s="68" t="s">
+      <c r="F280" s="67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="281" spans="5:7">
-      <c r="E281" s="68">
+      <c r="E281" s="67">
         <f>E277+E280</f>
         <v>106508725.86520946</v>
       </c>
-      <c r="F281" s="68" t="s">
+      <c r="F281" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G281" s="68" t="s">
-        <v>165</v>
+      <c r="G281" s="67" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="283" spans="5:7">
-      <c r="E283" s="68">
+      <c r="E283" s="67">
         <v>0</v>
       </c>
-      <c r="F283" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G283" s="68" t="s">
-        <v>176</v>
+      <c r="F283" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G283" s="67" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="284" spans="5:7">
-      <c r="E284" s="68">
-        <f>E283/E116</f>
+      <c r="E284" s="67">
+        <f>E283/E111</f>
         <v>0</v>
       </c>
-      <c r="F284" s="68" t="s">
+      <c r="F284" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G284" s="68" t="s">
-        <v>176</v>
+      <c r="G284" s="67" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="285" spans="5:7">
-      <c r="G285" s="68" t="s">
-        <v>177</v>
+      <c r="G285" s="67" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="293" spans="5:7">
-      <c r="E293" s="68">
+      <c r="E293" s="67">
         <v>2439447</v>
       </c>
-      <c r="F293" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G293" s="68" t="s">
-        <v>175</v>
+      <c r="F293" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G293" s="67" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="294" spans="5:7">
-      <c r="E294" s="68">
-        <f>E293/E116</f>
+      <c r="E294" s="67">
+        <f>E293/E111</f>
         <v>2221718.5792349726</v>
       </c>
-      <c r="F294" s="68" t="s">
+      <c r="F294" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G294" s="68" t="s">
-        <v>175</v>
+      <c r="G294" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="302" spans="5:7">
+      <c r="E302" s="67">
+        <v>0.9</v>
+      </c>
+      <c r="G302" s="67" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7204,152 +7344,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="47.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="110"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="110"/>
-      <c r="B2" s="176" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="110"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="110"/>
-      <c r="B4" s="182"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="112"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="116"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" thickBot="1">
-      <c r="B8" s="25"/>
-      <c r="I8" s="117"/>
-    </row>
-    <row r="9" spans="1:9" ht="19" thickBot="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="119">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="120">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="121" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_steam_methane_reformer_ccs_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_steam_methane_reformer_ccs_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
   <si>
     <t>Source</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>energy_steam_methane_reformer_ccs_hydrogen.converter</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="443">
+  <cellStyleXfs count="445">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1537,6 +1540,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1985,7 +1990,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="443">
+  <cellStyles count="445">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2338,6 +2343,8 @@
     <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3564,8 +3571,8 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3755,15 +3762,15 @@
     <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="113"/>
       <c r="B15" s="114"/>
-      <c r="C15" s="110" t="s">
-        <v>77</v>
+      <c r="C15" s="152" t="s">
+        <v>187</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="107">
         <f>'Research data'!H10</f>
-        <v>363.21909722222222</v>
+        <v>513.02132376020086</v>
       </c>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
@@ -3938,7 +3945,9 @@
         <v>165</v>
       </c>
       <c r="H24" s="148"/>
-      <c r="I24" s="149"/>
+      <c r="I24" s="149" t="s">
+        <v>154</v>
+      </c>
       <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" ht="16" thickBot="1">
@@ -3956,7 +3965,9 @@
         <v>166</v>
       </c>
       <c r="H25" s="148"/>
-      <c r="I25" s="149"/>
+      <c r="I25" s="149" t="s">
+        <v>154</v>
+      </c>
       <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1">
@@ -3974,7 +3985,9 @@
         <v>167</v>
       </c>
       <c r="H26" s="148"/>
-      <c r="I26" s="149"/>
+      <c r="I26" s="149" t="s">
+        <v>154</v>
+      </c>
       <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1">
@@ -4143,7 +4156,9 @@
       <c r="F35" s="110"/>
       <c r="G35" s="110"/>
       <c r="H35" s="110"/>
-      <c r="I35" s="112"/>
+      <c r="I35" s="149" t="s">
+        <v>154</v>
+      </c>
       <c r="J35" s="116"/>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1">
@@ -4312,7 +4327,7 @@
   <dimension ref="A2:S43"/>
   <sheetViews>
     <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4503,8 +4518,8 @@
     </row>
     <row r="10" spans="1:19" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="111" t="s">
-        <v>77</v>
+      <c r="C10" s="152" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -4514,12 +4529,12 @@
       <c r="G10" s="92"/>
       <c r="H10" s="106">
         <f>J10</f>
-        <v>363.21909722222222</v>
+        <v>513.02132376020086</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="106">
-        <f>Notes!E66</f>
-        <v>363.21909722222222</v>
+        <f>Notes!E67</f>
+        <v>513.02132376020086</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="53"/>
@@ -4701,16 +4716,15 @@
         <v>20</v>
       </c>
       <c r="H19" s="126">
-        <f>L19</f>
+        <f>J19</f>
         <v>160000000</v>
       </c>
       <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="131">
+      <c r="J19" s="131">
         <f>Notes!E69</f>
         <v>160000000</v>
       </c>
+      <c r="K19" s="127"/>
       <c r="O19" s="48"/>
       <c r="P19" s="109"/>
     </row>
@@ -5512,8 +5526,8 @@
   </sheetPr>
   <dimension ref="A1:Q302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:J41"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6475,6 +6489,16 @@
     <row r="67" spans="2:15">
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
+      <c r="E67" s="67">
+        <f>E66/E36</f>
+        <v>513.02132376020086</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>187</v>
+      </c>
       <c r="K67" s="74"/>
       <c r="L67" s="74"/>
       <c r="M67" s="74"/>

--- a/nodes_source_analyses/energy/energy_steam_methane_reformer_ccs_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_steam_methane_reformer_ccs_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,8 +42,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -182,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -682,6 +687,10 @@
   <si>
     <t>typical_input_capacity</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -696,7 +705,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -891,11 +900,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1539,7 +1543,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1774,7 +1778,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1806,20 +1810,20 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1839,13 +1843,13 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1915,8 +1919,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1924,8 +1928,8 @@
     <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1933,7 +1937,7 @@
     <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1946,47 +1950,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2447,77 +2451,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2883,7 +2817,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2996,7 +2930,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3387,50 +3321,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3439,29 +3373,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="77"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="78" t="s">
         <v>27</v>
@@ -3470,33 +3404,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="78"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="78"/>
       <c r="C13" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="78"/>
       <c r="C14" s="79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="78" t="s">
         <v>32</v>
@@ -3505,49 +3439,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="78"/>
       <c r="C17" s="83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="78"/>
       <c r="C18" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="78"/>
       <c r="C19" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="86"/>
       <c r="C21" s="88" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="86"/>
       <c r="C22" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="90" t="s">
         <v>40</v>
@@ -3556,46 +3490,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="179" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="C2" s="180"/>
       <c r="D2" s="180"/>
@@ -3603,7 +3532,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="182"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
@@ -3611,7 +3540,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="182"/>
       <c r="C4" s="183"/>
       <c r="D4" s="183"/>
@@ -3619,7 +3548,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="185"/>
       <c r="C5" s="186"/>
       <c r="D5" s="186"/>
@@ -3627,17 +3556,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3648,7 +3577,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3669,7 +3598,7 @@
       </c>
       <c r="J9" s="93"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3680,7 +3609,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3693,10 +3622,10 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="107">
@@ -3705,19 +3634,19 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="107">
@@ -3726,20 +3655,20 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>2</v>
@@ -3750,23 +3679,23 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="113"/>
       <c r="B15" s="114"/>
       <c r="C15" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="107">
         <f>'Research data'!H10</f>
@@ -3774,20 +3703,20 @@
       </c>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" s="116"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="113"/>
       <c r="B16" s="114"/>
       <c r="C16" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="107">
@@ -3798,15 +3727,15 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
       <c r="I16" s="153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="116"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="114"/>
       <c r="C17" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3819,14 +3748,14 @@
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
       <c r="I17" s="112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="116"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="114"/>
       <c r="C18" s="110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
@@ -3840,7 +3769,7 @@
       <c r="I18" s="112"/>
       <c r="J18" s="116"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -3851,7 +3780,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>43</v>
@@ -3864,7 +3793,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="94"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -3882,17 +3811,17 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J21" s="94"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H29</f>
@@ -3900,21 +3829,21 @@
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="94"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="145"/>
       <c r="C23" s="154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="107">
         <f>'Research data'!H23</f>
@@ -3922,18 +3851,18 @@
       </c>
       <c r="F23" s="148"/>
       <c r="G23" s="146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="148"/>
       <c r="I23" s="149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="150"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="145"/>
       <c r="C24" s="154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="147"/>
       <c r="E24" s="107">
@@ -3942,18 +3871,18 @@
       </c>
       <c r="F24" s="148"/>
       <c r="G24" s="154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="148"/>
       <c r="I24" s="149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="150"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="145"/>
       <c r="C25" s="154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="147"/>
       <c r="E25" s="107">
@@ -3962,18 +3891,18 @@
       </c>
       <c r="F25" s="148"/>
       <c r="G25" s="154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H25" s="148"/>
       <c r="I25" s="149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="150"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="145"/>
       <c r="C26" s="161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" s="147"/>
       <c r="E26" s="107">
@@ -3982,18 +3911,18 @@
       </c>
       <c r="F26" s="148"/>
       <c r="G26" s="154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H26" s="148"/>
       <c r="I26" s="149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" s="150"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="145"/>
       <c r="C27" s="154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="147"/>
       <c r="E27" s="107">
@@ -4002,40 +3931,40 @@
       </c>
       <c r="F27" s="148"/>
       <c r="G27" s="155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27" s="148"/>
       <c r="I27" s="149"/>
       <c r="J27" s="150"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="113"/>
       <c r="B28" s="114"/>
       <c r="C28" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="E28" s="117">
         <v>0.1</v>
       </c>
       <c r="F28" s="110"/>
       <c r="G28" s="110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="112"/>
       <c r="J28" s="116"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="113"/>
       <c r="B29" s="114"/>
       <c r="C29" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="E29" s="117">
         <v>1</v>
@@ -4046,7 +3975,7 @@
       <c r="I29" s="112"/>
       <c r="J29" s="116"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="113"/>
       <c r="B30" s="114"/>
       <c r="C30" s="110"/>
@@ -4058,7 +3987,7 @@
       <c r="I30" s="118"/>
       <c r="J30" s="116"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="114"/>
       <c r="C31" s="13" t="s">
@@ -4071,7 +4000,7 @@
       <c r="I31" s="118"/>
       <c r="J31" s="116"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113"/>
       <c r="B32" s="114"/>
       <c r="C32" s="110" t="s">
@@ -4086,19 +4015,19 @@
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J32" s="116"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="113"/>
       <c r="B33" s="114"/>
       <c r="C33" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
@@ -4109,22 +4038,22 @@
       </c>
       <c r="F33" s="110"/>
       <c r="G33" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" s="116"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113"/>
       <c r="B34" s="114"/>
       <c r="C34" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="E34" s="137">
         <f>'Research data'!H34</f>
@@ -4132,15 +4061,15 @@
       </c>
       <c r="F34" s="110"/>
       <c r="G34" s="110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H34" s="110"/>
       <c r="I34" s="112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J34" s="116"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="113"/>
       <c r="B35" s="114"/>
       <c r="C35" s="110" t="s">
@@ -4157,11 +4086,11 @@
       <c r="G35" s="110"/>
       <c r="H35" s="110"/>
       <c r="I35" s="149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J35" s="116"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="113"/>
       <c r="B36" s="121"/>
       <c r="C36" s="122"/>
@@ -4173,7 +4102,7 @@
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="113"/>
       <c r="B37" s="113"/>
       <c r="C37" s="113"/>
@@ -4185,7 +4114,7 @@
       <c r="I37" s="113"/>
       <c r="J37" s="113"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="113"/>
       <c r="B38" s="113"/>
       <c r="C38" s="113"/>
@@ -4197,7 +4126,7 @@
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="113"/>
       <c r="B39" s="113"/>
       <c r="C39" s="113"/>
@@ -4209,7 +4138,7 @@
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="113"/>
       <c r="B40" s="113"/>
       <c r="E40" s="113"/>
@@ -4219,7 +4148,7 @@
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="113"/>
       <c r="B41" s="113"/>
       <c r="C41" s="113"/>
@@ -4231,7 +4160,7 @@
       <c r="I41" s="113"/>
       <c r="J41" s="113"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="113"/>
       <c r="B42" s="113"/>
       <c r="C42" s="113"/>
@@ -4243,7 +4172,7 @@
       <c r="I42" s="113"/>
       <c r="J42" s="113"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="113"/>
       <c r="B43" s="113"/>
       <c r="C43" s="113"/>
@@ -4255,7 +4184,7 @@
       <c r="I43" s="113"/>
       <c r="J43" s="113"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="113"/>
       <c r="B44" s="113"/>
       <c r="C44" s="113"/>
@@ -4267,10 +4196,10 @@
       <c r="I44" s="113"/>
       <c r="J44" s="113"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="113"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="113"/>
     </row>
   </sheetData>
@@ -4279,43 +4208,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4330,32 +4222,32 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="42" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="42" customWidth="1"/>
-    <col min="15" max="15" width="3.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="42" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="42" customWidth="1"/>
     <col min="17" max="17" width="11" style="42" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="42" customWidth="1"/>
-    <col min="19" max="19" width="22.375" style="42" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="42"/>
+    <col min="18" max="18" width="2.42578125" style="42" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="42" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="16" thickBot="1"/>
-    <row r="3" spans="1:19">
+    <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4375,7 +4267,7 @@
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
     </row>
-    <row r="4" spans="1:19" s="26" customFormat="1">
+    <row r="4" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="91" t="s">
         <v>19</v>
@@ -4387,26 +4279,26 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4420,7 +4312,7 @@
       <c r="L5" s="49"/>
       <c r="P5" s="54"/>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4439,10 +4331,10 @@
       <c r="O6" s="46"/>
       <c r="P6" s="52"/>
     </row>
-    <row r="7" spans="1:19" ht="16" thickBot="1">
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -4464,10 +4356,10 @@
       <c r="O7" s="46"/>
       <c r="P7" s="109"/>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1">
+    <row r="8" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -4489,10 +4381,10 @@
       <c r="O8" s="46"/>
       <c r="P8" s="109"/>
     </row>
-    <row r="9" spans="1:19" ht="16" thickBot="1">
+    <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -4516,15 +4408,15 @@
       <c r="O9" s="46"/>
       <c r="P9" s="52"/>
     </row>
-    <row r="10" spans="1:19" ht="16" thickBot="1">
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="106">
@@ -4543,11 +4435,11 @@
       <c r="O10" s="46"/>
       <c r="P10" s="109"/>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1">
+    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="113"/>
       <c r="B11" s="114"/>
       <c r="C11" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -4572,16 +4464,16 @@
       <c r="P11" s="152"/>
       <c r="Q11" s="113"/>
     </row>
-    <row r="12" spans="1:19" ht="16" thickBot="1">
+    <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="111"/>
       <c r="E12" s="111"/>
       <c r="F12" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="115">
         <f>N12</f>
@@ -4600,11 +4492,11 @@
       <c r="P12" s="152"/>
       <c r="Q12" s="113"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1">
+    <row r="13" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113"/>
       <c r="B13" s="114"/>
       <c r="C13" s="140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4624,11 +4516,11 @@
       <c r="P13" s="152"/>
       <c r="Q13" s="113"/>
     </row>
-    <row r="14" spans="1:19" ht="16" thickBot="1">
+    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
       <c r="C14" s="140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4648,11 +4540,11 @@
       <c r="P14" s="152"/>
       <c r="Q14" s="113"/>
     </row>
-    <row r="15" spans="1:19" ht="16" thickBot="1">
+    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="113"/>
       <c r="B15" s="114"/>
       <c r="C15" s="110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4667,7 +4559,7 @@
       <c r="P15" s="152"/>
       <c r="Q15" s="113"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="45"/>
       <c r="I16" s="113"/>
       <c r="J16" s="53"/>
@@ -4678,7 +4570,7 @@
       <c r="O16" s="46"/>
       <c r="P16" s="152"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="113"/>
       <c r="B17" s="114"/>
       <c r="C17" s="34"/>
@@ -4690,7 +4582,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="54"/>
     </row>
-    <row r="18" spans="1:16" ht="16" thickBot="1">
+    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="12" t="s">
@@ -4704,11 +4596,11 @@
       <c r="O18" s="48"/>
       <c r="P18" s="109"/>
     </row>
-    <row r="19" spans="1:16" ht="16" thickBot="1">
+    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="113"/>
       <c r="B19" s="114"/>
       <c r="C19" s="130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="124"/>
       <c r="E19" s="124"/>
@@ -4728,14 +4620,14 @@
       <c r="O19" s="48"/>
       <c r="P19" s="109"/>
     </row>
-    <row r="20" spans="1:16" ht="16" thickBot="1">
+    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="113"/>
       <c r="B20" s="114"/>
       <c r="C20" s="130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="126">
         <f>L20</f>
@@ -4748,14 +4640,14 @@
         <v>2648341.5300546447</v>
       </c>
       <c r="P20" s="135" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="113"/>
       <c r="B21" s="114"/>
       <c r="C21" s="130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="132" t="s">
         <v>20</v>
@@ -4771,17 +4663,17 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="P21" s="135" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="113"/>
       <c r="B22" s="114"/>
       <c r="C22" s="130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="142">
         <f>L22</f>
@@ -4794,17 +4686,17 @@
         <v>2.120718247541034E-4</v>
       </c>
       <c r="P22" s="135" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="113"/>
       <c r="B23" s="114"/>
       <c r="C23" s="130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="141">
         <f>Notes!E241</f>
@@ -4817,14 +4709,14 @@
         <v>277.30273224043714</v>
       </c>
       <c r="P23" s="135" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="156"/>
       <c r="B24" s="157"/>
       <c r="C24" s="155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="156"/>
       <c r="E24" s="156"/>
@@ -4848,11 +4740,11 @@
       <c r="O24" s="160"/>
       <c r="P24" s="55"/>
     </row>
-    <row r="25" spans="1:16" ht="16" thickBot="1">
+    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="156"/>
       <c r="B25" s="157"/>
       <c r="C25" s="155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="156"/>
       <c r="E25" s="156"/>
@@ -4874,14 +4766,14 @@
       <c r="M25" s="156"/>
       <c r="N25" s="156"/>
       <c r="P25" s="160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="156"/>
       <c r="B26" s="157"/>
       <c r="C26" s="155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="156"/>
       <c r="E26" s="156"/>
@@ -4905,16 +4797,16 @@
       <c r="O26" s="160"/>
       <c r="P26" s="55"/>
     </row>
-    <row r="27" spans="1:16" ht="16" thickBot="1">
+    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="156"/>
       <c r="B27" s="157"/>
       <c r="C27" s="154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="156"/>
       <c r="E27" s="156"/>
       <c r="F27" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G27" s="156"/>
       <c r="H27" s="158">
@@ -4931,19 +4823,19 @@
       <c r="M27" s="156"/>
       <c r="N27" s="156"/>
       <c r="P27" s="160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16" thickBot="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="156"/>
       <c r="B28" s="157"/>
       <c r="C28" s="155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="156"/>
       <c r="E28" s="156"/>
       <c r="F28" s="155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="156"/>
       <c r="H28" s="158">
@@ -4962,16 +4854,16 @@
       <c r="O28" s="160"/>
       <c r="P28" s="135"/>
     </row>
-    <row r="29" spans="1:16" ht="16" thickBot="1">
+    <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="156"/>
       <c r="B29" s="157"/>
       <c r="C29" s="155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="156"/>
       <c r="E29" s="156"/>
       <c r="F29" s="155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="156"/>
       <c r="H29" s="158">
@@ -4985,14 +4877,14 @@
       <c r="M29" s="156"/>
       <c r="N29" s="156"/>
       <c r="P29" s="135" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="45"/>
       <c r="P30" s="109"/>
     </row>
-    <row r="31" spans="1:16" ht="16" thickBot="1">
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="114"/>
       <c r="C31" s="34" t="s">
@@ -5009,7 +4901,7 @@
       <c r="O31" s="46"/>
       <c r="P31" s="152"/>
     </row>
-    <row r="32" spans="1:16" ht="16" thickBot="1">
+    <row r="32" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113"/>
       <c r="B32" s="114"/>
       <c r="C32" s="129" t="s">
@@ -5034,11 +4926,11 @@
       <c r="O32" s="46"/>
       <c r="P32" s="152"/>
     </row>
-    <row r="33" spans="1:16" ht="16" thickBot="1">
+    <row r="33" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="113"/>
       <c r="B33" s="114"/>
       <c r="C33" s="111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="125" t="s">
         <v>1</v>
@@ -5059,14 +4951,14 @@
       <c r="O33" s="46"/>
       <c r="P33" s="152"/>
     </row>
-    <row r="34" spans="1:16" ht="16" thickBot="1">
+    <row r="34" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113"/>
       <c r="B34" s="114"/>
       <c r="C34" s="124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="136">
         <f>L34</f>
@@ -5084,7 +4976,7 @@
       <c r="O34" s="46"/>
       <c r="P34" s="152"/>
     </row>
-    <row r="35" spans="1:16" ht="16" thickBot="1">
+    <row r="35" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="113"/>
       <c r="B35" s="114"/>
       <c r="C35" s="104" t="s">
@@ -5101,78 +4993,73 @@
       </c>
       <c r="P35" s="152"/>
     </row>
-    <row r="36" spans="1:16" ht="16" thickBot="1">
+    <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="113"/>
       <c r="B36" s="114"/>
       <c r="C36" s="140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" s="117">
         <v>442800</v>
       </c>
       <c r="P36" s="52"/>
     </row>
-    <row r="37" spans="1:16" ht="16" thickBot="1">
+    <row r="37" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="113"/>
       <c r="B37" s="114"/>
       <c r="C37" s="140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="117">
         <v>0</v>
       </c>
       <c r="P37" s="109"/>
     </row>
-    <row r="38" spans="1:16" ht="16" thickBot="1">
+    <row r="38" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="113"/>
       <c r="B38" s="114"/>
       <c r="C38" s="140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="117">
         <v>2835000</v>
       </c>
       <c r="P38" s="152"/>
     </row>
-    <row r="39" spans="1:16" ht="16" thickBot="1">
+    <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="113"/>
       <c r="B39" s="114"/>
       <c r="C39" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="117">
         <v>534600</v>
       </c>
       <c r="P39" s="152"/>
     </row>
-    <row r="40" spans="1:16" ht="16" thickBot="1">
+    <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="113"/>
       <c r="B40" s="114"/>
       <c r="C40" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40" s="117">
         <v>354600</v>
       </c>
       <c r="P40" s="152"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P41" s="152"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P42" s="152"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P43" s="152"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5187,22 +5074,22 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="57" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="57" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="62" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="57"/>
+    <col min="1" max="1" width="3.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -5213,7 +5100,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5226,7 +5113,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="56"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5237,7 +5124,7 @@
       <c r="I4" s="64"/>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="65"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5252,19 +5139,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5275,16 +5162,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="56">
         <v>2015</v>
@@ -5296,16 +5183,16 @@
         <v>42328</v>
       </c>
       <c r="I7" s="100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="60"/>
       <c r="C8" s="113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -5315,10 +5202,10 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
       <c r="C9" s="133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -5327,7 +5214,7 @@
       <c r="H9" s="103"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
       <c r="C10" s="66"/>
       <c r="D10" s="56"/>
@@ -5338,16 +5225,16 @@
       <c r="I10" s="100"/>
       <c r="J10" s="99"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
       <c r="C11" s="133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="56">
         <v>2014</v>
@@ -5359,16 +5246,16 @@
         <v>42328</v>
       </c>
       <c r="I11" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
       <c r="C12" s="134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -5378,7 +5265,7 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="60"/>
       <c r="C13" s="134"/>
       <c r="D13" s="56"/>
@@ -5389,13 +5276,13 @@
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="60"/>
       <c r="C14" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="108"/>
       <c r="F14" s="56">
@@ -5408,13 +5295,13 @@
         <v>42328</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
       <c r="E15" s="108"/>
       <c r="F15" s="56"/>
@@ -5423,16 +5310,16 @@
       <c r="I15" s="118"/>
       <c r="J15" s="98"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="60"/>
       <c r="C16" s="133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="56">
         <v>2015</v>
@@ -5444,34 +5331,34 @@
         <v>42328</v>
       </c>
       <c r="I16" s="118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="60"/>
       <c r="C17" s="113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="60"/>
       <c r="C18" s="113" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="60"/>
       <c r="C19" s="133" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="60"/>
       <c r="C20" s="134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -5481,10 +5368,10 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
       <c r="C21" s="133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5494,7 +5381,7 @@
       <c r="I21" s="100"/>
       <c r="J21" s="56"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="60"/>
       <c r="C22" s="162" t="s">
         <v>21</v>
@@ -5508,14 +5395,9 @@
       <c r="J22" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5530,24 +5412,24 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="67" customWidth="1"/>
     <col min="4" max="4" width="4" style="67" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="67" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="67"/>
-    <col min="13" max="13" width="10.625" style="67" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="67" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="67" customWidth="1"/>
-    <col min="16" max="16" width="54.75" style="67" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="67"/>
+    <col min="5" max="5" width="13.140625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="67" customWidth="1"/>
+    <col min="7" max="12" width="10.7109375" style="67"/>
+    <col min="13" max="13" width="10.5703125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="67" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="67" customWidth="1"/>
+    <col min="16" max="16" width="54.7109375" style="67" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -5562,14 +5444,14 @@
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="71"/>
       <c r="B3" s="96"/>
       <c r="C3" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="75" t="s">
         <v>25</v>
@@ -5584,7 +5466,7 @@
       <c r="M3" s="72"/>
       <c r="N3" s="97"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -5600,7 +5482,7 @@
       <c r="N4" s="74"/>
       <c r="O4" s="74"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
@@ -5615,7 +5497,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="73"/>
       <c r="D6" s="74"/>
       <c r="G6" s="74"/>
@@ -5628,7 +5510,7 @@
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="73"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
@@ -5643,7 +5525,7 @@
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
@@ -5658,7 +5540,7 @@
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -5674,7 +5556,7 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -5690,7 +5572,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="74"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
@@ -5706,7 +5588,7 @@
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
@@ -5722,7 +5604,7 @@
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
@@ -5738,7 +5620,7 @@
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
@@ -5754,7 +5636,7 @@
       <c r="N14" s="74"/>
       <c r="O14" s="74"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
       <c r="D15" s="74"/>
@@ -5770,7 +5652,7 @@
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="74"/>
       <c r="D16" s="74"/>
@@ -5786,10 +5668,10 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="74"/>
       <c r="I17" s="74"/>
@@ -5800,7 +5682,7 @@
       <c r="N17" s="74"/>
       <c r="O17" s="74"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -5812,10 +5694,10 @@
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -5830,7 +5712,7 @@
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -5846,7 +5728,7 @@
       <c r="N20" s="74"/>
       <c r="O20" s="74"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -5862,7 +5744,7 @@
       <c r="N21" s="74"/>
       <c r="O21" s="74"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -5878,7 +5760,7 @@
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
@@ -5894,7 +5776,7 @@
       <c r="N23" s="74"/>
       <c r="O23" s="74"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
@@ -5910,7 +5792,7 @@
       <c r="N24" s="74"/>
       <c r="O24" s="74"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -5926,7 +5808,7 @@
       <c r="N25" s="74"/>
       <c r="O25" s="74"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -5942,7 +5824,7 @@
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
@@ -5958,7 +5840,7 @@
       <c r="N27" s="74"/>
       <c r="O27" s="74"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
@@ -5966,13 +5848,13 @@
         <v>45.79</v>
       </c>
       <c r="F28" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5982,7 +5864,7 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="73"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -5991,10 +5873,10 @@
         <v>1.377</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -6005,7 +5887,7 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -6021,7 +5903,7 @@
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -6037,7 +5919,7 @@
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -6053,7 +5935,7 @@
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
       <c r="C33" s="74"/>
       <c r="E33" s="74">
@@ -6062,7 +5944,7 @@
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -6073,14 +5955,14 @@
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="73"/>
       <c r="E34" s="74">
         <f>E29/($E$28+$E$29)</f>
         <v>2.9194139970742255E-2</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -6091,7 +5973,7 @@
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
       <c r="D35" s="74"/>
@@ -6107,7 +5989,7 @@
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="73"/>
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
@@ -6116,7 +5998,7 @@
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -6127,7 +6009,7 @@
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
       <c r="D37" s="74"/>
@@ -6143,7 +6025,7 @@
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
@@ -6157,7 +6039,7 @@
       <c r="N38" s="74"/>
       <c r="O38" s="74"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="73"/>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -6173,7 +6055,7 @@
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="73"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -6189,7 +6071,7 @@
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="73"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -6205,7 +6087,7 @@
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="73"/>
       <c r="C42" s="74"/>
       <c r="K42" s="74"/>
@@ -6214,7 +6096,7 @@
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
       <c r="K43" s="74"/>
@@ -6223,7 +6105,7 @@
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
       <c r="K44" s="74"/>
@@ -6232,7 +6114,7 @@
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
       <c r="K45" s="74"/>
@@ -6241,7 +6123,7 @@
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="73"/>
       <c r="C46" s="74"/>
       <c r="E46" s="102"/>
@@ -6252,7 +6134,7 @@
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="73"/>
       <c r="C47" s="74"/>
       <c r="E47" s="74"/>
@@ -6263,7 +6145,7 @@
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="73"/>
       <c r="C48" s="74"/>
       <c r="K48" s="74"/>
@@ -6272,7 +6154,7 @@
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="73"/>
       <c r="C49" s="74"/>
       <c r="K49" s="74"/>
@@ -6281,7 +6163,7 @@
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="73"/>
       <c r="C50" s="74"/>
       <c r="J50"/>
@@ -6291,10 +6173,10 @@
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="73"/>
       <c r="C51" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="74"/>
       <c r="K51" s="74"/>
@@ -6303,7 +6185,7 @@
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="73"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
@@ -6313,10 +6195,10 @@
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="73"/>
       <c r="C53" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="74"/>
       <c r="K53" s="74"/>
@@ -6325,7 +6207,7 @@
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="73"/>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
@@ -6335,7 +6217,7 @@
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="73"/>
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
@@ -6345,7 +6227,7 @@
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="73"/>
       <c r="C56" s="74"/>
       <c r="K56" s="74"/>
@@ -6354,7 +6236,7 @@
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="73"/>
       <c r="C57" s="74"/>
       <c r="K57" s="74"/>
@@ -6363,7 +6245,7 @@
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="73"/>
       <c r="C58" s="74"/>
       <c r="K58" s="74"/>
@@ -6372,14 +6254,14 @@
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
       <c r="C59" s="74"/>
       <c r="E59" s="67">
         <v>130000</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K59" s="74"/>
       <c r="L59" s="74"/>
@@ -6387,7 +6269,7 @@
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="73"/>
       <c r="C60" s="74"/>
       <c r="K60" s="74"/>
@@ -6396,14 +6278,14 @@
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="73"/>
       <c r="C61" s="74"/>
       <c r="E61" s="67">
         <v>8.3750000000000005E-2</v>
       </c>
       <c r="F61" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K61" s="74"/>
       <c r="L61" s="74"/>
@@ -6411,14 +6293,14 @@
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="73"/>
       <c r="C62" s="74"/>
       <c r="E62" s="67">
         <v>120.1</v>
       </c>
       <c r="F62" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K62" s="74"/>
       <c r="L62" s="74"/>
@@ -6426,7 +6308,7 @@
       <c r="N62" s="74"/>
       <c r="O62" s="74"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="73"/>
       <c r="C63" s="74"/>
       <c r="K63" s="74"/>
@@ -6435,7 +6317,7 @@
       <c r="N63" s="74"/>
       <c r="O63" s="74"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="73"/>
       <c r="C64" s="74"/>
       <c r="E64" s="67">
@@ -6443,7 +6325,7 @@
         <v>1307588.75</v>
       </c>
       <c r="F64" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K64" s="74"/>
       <c r="L64" s="74"/>
@@ -6451,7 +6333,7 @@
       <c r="N64" s="74"/>
       <c r="O64" s="74"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="73"/>
       <c r="C65" s="74"/>
       <c r="E65" s="67">
@@ -6459,7 +6341,7 @@
         <v>261300</v>
       </c>
       <c r="F65" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K65" s="74"/>
       <c r="L65" s="74"/>
@@ -6467,7 +6349,7 @@
       <c r="N65" s="74"/>
       <c r="O65" s="74"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="73"/>
       <c r="C66" s="74"/>
       <c r="E66" s="67">
@@ -6475,10 +6357,10 @@
         <v>363.21909722222222</v>
       </c>
       <c r="F66" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="67" t="s">
         <v>76</v>
-      </c>
-      <c r="G66" s="67" t="s">
-        <v>77</v>
       </c>
       <c r="K66" s="74"/>
       <c r="L66" s="74"/>
@@ -6486,7 +6368,7 @@
       <c r="N66" s="74"/>
       <c r="O66" s="74"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
       <c r="E67" s="67">
@@ -6494,10 +6376,10 @@
         <v>513.02132376020086</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G67" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K67" s="74"/>
       <c r="L67" s="74"/>
@@ -6505,7 +6387,7 @@
       <c r="N67" s="74"/>
       <c r="O67" s="74"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="73"/>
       <c r="C68" s="74"/>
       <c r="K68" s="74"/>
@@ -6514,7 +6396,7 @@
       <c r="N68" s="74"/>
       <c r="O68" s="74"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="73"/>
       <c r="C69" s="74"/>
       <c r="E69" s="67">
@@ -6524,7 +6406,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K69" s="74"/>
       <c r="L69" s="74"/>
@@ -6532,7 +6414,7 @@
       <c r="N69" s="74"/>
       <c r="O69" s="74"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="73"/>
       <c r="C70" s="74"/>
       <c r="K70" s="74"/>
@@ -6541,7 +6423,7 @@
       <c r="N70" s="74"/>
       <c r="O70" s="74"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="73"/>
       <c r="C71" s="74"/>
       <c r="K71" s="74"/>
@@ -6550,7 +6432,7 @@
       <c r="N71" s="74"/>
       <c r="O71" s="74"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="73"/>
       <c r="C72" s="74"/>
       <c r="K72" s="74"/>
@@ -6559,7 +6441,7 @@
       <c r="N72" s="74"/>
       <c r="O72" s="74"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="73"/>
       <c r="C73" s="74"/>
       <c r="K73" s="74"/>
@@ -6568,7 +6450,7 @@
       <c r="N73" s="74"/>
       <c r="O73" s="74"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="73"/>
       <c r="K74" s="74"/>
       <c r="L74" s="74"/>
@@ -6576,7 +6458,7 @@
       <c r="N74" s="74"/>
       <c r="O74" s="74"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="73"/>
       <c r="K75" s="74"/>
       <c r="L75" s="74"/>
@@ -6584,188 +6466,188 @@
       <c r="N75" s="74"/>
       <c r="O75" s="74"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="73"/>
       <c r="N76" s="74"/>
       <c r="O76" s="74"/>
     </row>
-    <row r="77" spans="2:15" ht="16">
+    <row r="77" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="73"/>
       <c r="C77" s="143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="73"/>
       <c r="N78" s="74"/>
       <c r="O78" s="74"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="73"/>
       <c r="C79" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="73"/>
       <c r="E80" s="67">
         <v>7500</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="73"/>
       <c r="N81" s="74"/>
       <c r="O81" s="74"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="73"/>
       <c r="N82" s="74"/>
       <c r="O82" s="74"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="73"/>
       <c r="N83" s="74"/>
       <c r="O83" s="74"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="73"/>
       <c r="N84" s="74"/>
       <c r="O84" s="74"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="73"/>
       <c r="N85" s="74"/>
       <c r="O85" s="74"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="73"/>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="73"/>
       <c r="N87" s="74"/>
       <c r="O87" s="74"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="73"/>
       <c r="N88" s="74"/>
       <c r="O88" s="74"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="73"/>
       <c r="N89" s="74"/>
       <c r="O89" s="74"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="73"/>
       <c r="N90" s="74"/>
       <c r="O90" s="74"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="73"/>
       <c r="N91" s="74"/>
       <c r="O91" s="74"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="73"/>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="73"/>
       <c r="N93" s="74"/>
       <c r="O93" s="74"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="73"/>
       <c r="N94" s="74"/>
       <c r="O94" s="74"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="73"/>
       <c r="N95" s="74"/>
       <c r="O95" s="74"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="73"/>
       <c r="N96" s="74"/>
       <c r="O96" s="74"/>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="73"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="73"/>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="73"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="73"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="73"/>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="73"/>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="73"/>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="73"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="73"/>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="73"/>
       <c r="C106" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
     </row>
-    <row r="107" spans="2:17" ht="16" thickBot="1">
+    <row r="107" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="73"/>
       <c r="C107" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="73"/>
       <c r="C108" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J108" s="163"/>
       <c r="K108" s="164"/>
@@ -6776,15 +6658,15 @@
       <c r="P108" s="164"/>
       <c r="Q108" s="165"/>
     </row>
-    <row r="109" spans="2:17" ht="18">
+    <row r="109" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="B109" s="73"/>
       <c r="C109" s="74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D109" s="74"/>
       <c r="J109" s="166"/>
       <c r="K109" s="167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L109" s="167" t="s">
         <v>8</v>
@@ -6796,14 +6678,14 @@
         <v>7</v>
       </c>
       <c r="O109" s="167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P109" s="167" t="s">
         <v>0</v>
       </c>
       <c r="Q109" s="168"/>
     </row>
-    <row r="110" spans="2:17" ht="19" thickBot="1">
+    <row r="110" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="73"/>
       <c r="C110" s="74"/>
       <c r="J110" s="169"/>
@@ -6815,46 +6697,46 @@
       <c r="P110" s="170"/>
       <c r="Q110" s="171"/>
     </row>
-    <row r="111" spans="2:17" ht="19" thickBot="1">
+    <row r="111" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="73"/>
       <c r="C111" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="178">
         <f>M111</f>
         <v>1.0980000000000001</v>
       </c>
       <c r="F111" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G111" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J111" s="169"/>
       <c r="K111" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="L111" s="152" t="s">
         <v>56</v>
-      </c>
-      <c r="L111" s="152" t="s">
-        <v>57</v>
       </c>
       <c r="M111" s="172">
         <v>1.0980000000000001</v>
       </c>
       <c r="N111" s="152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O111" s="173">
         <v>42221</v>
       </c>
       <c r="P111" s="174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q111" s="171"/>
     </row>
-    <row r="112" spans="2:17" ht="16" thickBot="1">
+    <row r="112" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="73"/>
       <c r="C112" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J112" s="175"/>
       <c r="K112" s="176"/>
@@ -6865,237 +6747,237 @@
       <c r="P112" s="176"/>
       <c r="Q112" s="177"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="73"/>
       <c r="C113" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="73"/>
       <c r="C114" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F114" s="138"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="73"/>
       <c r="C115" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="73"/>
       <c r="N116" s="74"/>
       <c r="O116" s="74"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="73"/>
       <c r="N117" s="74"/>
       <c r="O117" s="74"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="73"/>
       <c r="N118" s="74"/>
       <c r="O118" s="74"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="73"/>
       <c r="N119" s="74"/>
       <c r="O119" s="74"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="73"/>
       <c r="N120" s="74"/>
       <c r="O120" s="74"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="73"/>
       <c r="C121" s="74"/>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="73"/>
       <c r="C122" s="74"/>
       <c r="N122" s="74"/>
       <c r="O122" s="74"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="73"/>
       <c r="C123" s="74"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="73"/>
       <c r="C124" s="74"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="73"/>
       <c r="C125" s="74"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="73"/>
       <c r="C126" s="74"/>
       <c r="E126" s="139">
         <v>90</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="73"/>
       <c r="E127" s="67">
         <f>E126/100</f>
         <v>0.9</v>
       </c>
       <c r="G127" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="73"/>
       <c r="E128" s="67">
         <f>E80</f>
         <v>7500</v>
       </c>
       <c r="F128" s="67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="73"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="73"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="73"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="73"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="73"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="73"/>
       <c r="E134" s="67">
         <v>40</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G134" s="67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="73"/>
       <c r="E135" s="67">
         <v>3</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G135" s="67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="73"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="73"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="73"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="73"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="73"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="73"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="73"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="73"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="73"/>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="73"/>
       <c r="E145" s="67">
         <v>10</v>
       </c>
       <c r="F145" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G145" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="I145" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="I145" s="67" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="73"/>
       <c r="E146" s="67">
         <f>E145/100</f>
         <v>0.1</v>
       </c>
       <c r="G146" s="67" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" s="73"/>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="73"/>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="73"/>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="73"/>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="73"/>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="73"/>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="73"/>
     </row>
-    <row r="169" spans="5:7">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E169" s="67">
         <v>266812176</v>
       </c>
       <c r="F169" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G169" s="67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E170" s="67">
         <f>E169/E111</f>
         <v>242998338.79781419</v>
@@ -7104,7 +6986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="5:7">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E171" s="67">
         <f>E170*E146</f>
         <v>24299833.879781421</v>
@@ -7113,44 +6995,44 @@
         <v>20</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E177" s="67">
         <v>7.9952892230000003</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G177" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E178" s="67">
         <f>E177*0.00404686</f>
         <v>3.235581614498978E-2</v>
       </c>
       <c r="F178" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G178" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E183" s="67">
         <v>150280948</v>
       </c>
       <c r="F183" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G183" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E184" s="67">
         <f>E183/E111</f>
         <v>136867894.35336974</v>
@@ -7159,109 +7041,109 @@
         <v>20</v>
       </c>
       <c r="G184" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="204" spans="5:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E204" s="67">
         <v>2907879</v>
       </c>
       <c r="F204" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G204" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E205" s="67">
         <f>E204/E111</f>
         <v>2648341.5300546447</v>
       </c>
       <c r="F205" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="234" spans="5:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E234" s="67">
         <f>2267513+16075</f>
         <v>2283588</v>
       </c>
       <c r="F234" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G234" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="235" spans="5:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E235" s="67">
         <f>E234/E111</f>
         <v>2079770.4918032784</v>
       </c>
       <c r="F235" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G235" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="236" spans="5:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G236" s="67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="239" spans="5:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E239" s="67">
         <f>E66*60*60*E128</f>
         <v>9806915625</v>
       </c>
       <c r="F239" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G239" s="67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="240" spans="5:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E240" s="67">
         <f>E235/E239</f>
         <v>2.120718247541034E-4</v>
       </c>
       <c r="F240" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G240" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="241" spans="5:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E241" s="67">
         <f>E235/E128</f>
         <v>277.30273224043714</v>
       </c>
       <c r="F241" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G241" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="276" spans="5:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="276" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E276" s="67">
         <v>82356747</v>
       </c>
       <c r="F276" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G276" s="67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="277" spans="5:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="277" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E277" s="67">
         <f>E276/E111</f>
         <v>75006144.808743164</v>
@@ -7270,15 +7152,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="5:7">
+    <row r="279" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E279" s="67">
         <v>34589834</v>
       </c>
       <c r="F279" s="67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="280" spans="5:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E280" s="67">
         <f>E279/E111</f>
         <v>31502581.0564663</v>
@@ -7287,7 +7169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="5:7">
+    <row r="281" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E281" s="67">
         <f>E277+E280</f>
         <v>106508725.86520946</v>
@@ -7296,61 +7178,61 @@
         <v>20</v>
       </c>
       <c r="G281" s="67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="283" spans="5:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="283" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E283" s="67">
         <v>0</v>
       </c>
       <c r="F283" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G283" s="67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="284" spans="5:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="284" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E284" s="67">
         <f>E283/E111</f>
         <v>0</v>
       </c>
       <c r="F284" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G284" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="285" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G285" s="67" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="285" spans="5:7">
-      <c r="G285" s="67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="293" spans="5:7">
+    <row r="293" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E293" s="67">
         <v>2439447</v>
       </c>
       <c r="F293" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G293" s="67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="294" spans="5:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="294" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E294" s="67">
         <f>E293/E111</f>
         <v>2221718.5792349726</v>
       </c>
       <c r="F294" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G294" s="67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="302" spans="5:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="302" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E302" s="67">
         <v>0.9</v>
       </c>
@@ -7362,10 +7244,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>